--- a/downloaded_files/IHDS204_Lecture-35083.xlsx
+++ b/downloaded_files/IHDS204_Lecture-35083.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>AHMED SOLTAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد وائل فوزى سعد بكر ابو العز</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Wael fawzi saad bakr aboelez</x:t>
   </x:si>
   <x:si>
     <x:t>1240209</x:t>
@@ -254,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -741,7 +732,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6658619213</x:v>
+        <x:v>45907.6657585648</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -773,7 +764,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6657585648</x:v>
+        <x:v>45907.415378588</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -805,7 +796,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.415378588</x:v>
+        <x:v>45907.6652479167</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -837,7 +828,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6652479167</x:v>
+        <x:v>45907.6674930208</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -869,7 +860,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6674930208</x:v>
+        <x:v>45907.8202620718</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -901,7 +892,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.8202620718</x:v>
+        <x:v>45907.665372338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -933,7 +924,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.665372338</x:v>
+        <x:v>45907.6702238426</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -965,7 +956,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6702238426</x:v>
+        <x:v>45907.6894532407</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -982,38 +973,6 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:20">
-      <x:c r="A13" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E13" s="3">
-        <x:v>45907.6894532407</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s"/>
-      <x:c r="G13" s="2" t="s"/>
-      <x:c r="H13" s="2" t="s"/>
-      <x:c r="I13" s="2" t="s"/>
-      <x:c r="J13" s="2" t="s"/>
-      <x:c r="K13" s="2" t="s"/>
-      <x:c r="L13" s="2" t="s"/>
-      <x:c r="M13" s="2" t="s"/>
-      <x:c r="N13" s="2" t="s"/>
-      <x:c r="O13" s="2" t="s"/>
-      <x:c r="P13" s="2" t="s"/>
-      <x:c r="Q13" s="2" t="s"/>
-      <x:c r="R13" s="2" t="s"/>
-      <x:c r="S13" s="2" t="s"/>
-      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
